--- a/test/timings.xlsx
+++ b/test/timings.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascrosbie/Documents/repos/grepq/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B4C20-4AB5-6049-B944-83E9A5043DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A981C-0CBE-AD47-BE80-A321EA77FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A33A1557-C7C6-3B4E-8ECA-FE2A639FD21B}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A33A1557-C7C6-3B4E-8ECA-FE2A639FD21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="test_timings" localSheetId="0">Sheet1!$A$2:$E$283</definedName>
+    <definedName name="test_timings" localSheetId="1">Sheet2!$A$2:$E$330</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,11 +53,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{1D570C86-C98D-D141-8C1B-E26589485320}" name="test_timings1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/nicholascrosbie/Documents/repos/grepq/test/test_timings.log" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="59">
   <si>
     <t xml:space="preserve"> test-1</t>
   </si>
@@ -297,6 +310,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_timings" connectionId="1" xr16:uid="{2880C5D0-A52F-7D46-A99C-7D24BCF16AC8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_timings" connectionId="2" xr16:uid="{FC6C6F52-232E-864F-889B-B88082988E74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B3ADA-C8B9-A649-8EE3-825D9691B2B6}">
   <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5644,4 +5661,5834 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E6782B-8EFE-664F-B6A8-6F1E57034905}">
+  <dimension ref="A1:H330"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45714.483148148145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.4623772700000001E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>C2-C284</f>
+        <v>1.5719574239999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45714.483159722222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3.1482184320000002E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="0">C3-C285</f>
+        <v>1.8161210699999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45714.483159722222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2.6828059179999999E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.7825817580000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45714.483171296299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3.5933748660000001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.9540731920000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45714.483171296299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2.5735031200000001E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.6726154880000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45714.483182870368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4.7051659159999898E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.2475732659999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45714.483194444445</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2.7095334539999998E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.822726962E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45714.483194444445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2.728001398E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.8064221460000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45714.483206018522</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3.1600788679999998E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.1306019519999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45714.483206018522</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4.0821086719999997E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.0067179699999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45714.483217592591</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3.1970108240000003E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.8121191860000101E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45714.483217592591</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3.8629991760000003E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.1398661660000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45714.483229166668</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3.2331493060000001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.8701113140000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45714.483229166668</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>4.056279426E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.0199790280000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45714.483240740738</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>3.3488875000000001E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.9851855760000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45714.483240740738</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>5.1503134200000002E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2.2350026740000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45714.483252314814</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3.4023093259999998E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2.0001286640000098E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45714.483263888891</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>3.3527537480000001E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.0313771000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45714.483263888891</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3.71583859E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.0126594420000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45714.483275462961</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4.1281800719999998E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2.0153169699999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45714.483275462961</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3.2177358519999998E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.8947698540000099E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45714.483287037037</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3.6605655799999998E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.9666297539999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45714.483287037037</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>3.0226475959999999E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.7393115879999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45714.483298611114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>4.2335105679999999E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.2288325039999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45714.483298611114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>3.0511335859999999E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.7623970279999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45714.483310185184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>4.9622533080000003E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2.0728877500000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45714.483310185184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>3.142885418E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.8547253180000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45714.48332175926</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>3.1996393880000001E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.9048946700000104E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45714.48332175926</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>3.5628964800000003E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.9506673240000102E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45714.48333333333</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>4.0844533000000002E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2.1563238560000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45714.48333333333</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>3.2235610119999897E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.9111711579999899E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45714.483344907407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>3.4481393020000001E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.9510601560000101E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45714.483356481483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>3.2204675680000003E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.9414474840000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45714.483356481483</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>4.239769828E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2.5222177540000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45714.483368055553</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>3.2507600560000002E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.8304580680000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45714.483368055553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>4.5172600680000001E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>2.3126543820000102E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45714.48337962963</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>3.4101899179999999E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2.080973836E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45714.48337962963</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>3.1701430939999997E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.8565269939999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45714.483391203707</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>3.2652552019999899E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.8235421019999899E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45714.483391203707</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3.8542598380000001E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>2.0781251880000101E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45714.484097222223</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.9292181028000002</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.51462124442000068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45714.484340277777</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>3.5494543976599999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.15985283107999981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45714.484594907408</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>3.5579570016000002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0.16845125322000021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45714.484849537039</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.5694327057000002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0.17291170426000013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45714.485092592593</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>3.5560120366199901</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.16335786343999015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45714.485347222224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>3.5660596618599998</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.16770009706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45714.485601851855</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>3.5720474597999901</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0.17515741061999002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45714.750115740739</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>9.0648583399999903E-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45714.750115740739</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1.370387922E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>9.80041582E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1.7142537440000001E-2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1.0559840799999999E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2.6383829500000001E-2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>1.0034329959999999E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>1.0470007260000001E-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45714.750150462962</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1.0097641699999899E-2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45714.750150462962</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>2.208240144E-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>1.45526293E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>1.791631824E-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>1.296916022E-2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45714.750173611108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>2.2405627399999999E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45714.750173611108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>1.454685922E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45714.750185185185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>3.1836881599999999E-2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45714.750185185185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>1.4557097220000001E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>1.43022631599999E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>1.8047984060000001E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>2.08238052E-2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45714.750208333331</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>1.26585484799999E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45714.750208333331</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>1.7277846600000001E-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>1.5004799839999999E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>2.1732772000000001E-2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>1.440347642E-2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45714.750231481485</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>3.0397655459999999E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45714.750231481485</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>1.3910619040000001E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>1.38853762999999E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>1.6048700839999999E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>2.0385716179999999E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45714.750254629631</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79">
+        <v>1.29551568199999E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45714.750254629631</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>1.497103676E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>1.3753403339999901E-2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>1.8630544860000001E-2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>1.4069521600000001E-2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45714.750277777777</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>2.4029898040000001E-2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45714.750277777777</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>1.4237333359999899E-2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86">
+        <v>1.42857333799999E-2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>1.519046848E-2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88">
+        <v>1.9088685219999998E-2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45714.750972222224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89">
+        <v>9.6874230733799997</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45714.751215277778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>3.4983258234600001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45714.751458333332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91">
+        <v>3.4921092142599899</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45714.751712962963</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92">
+        <v>3.5022030458</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45714.751956018517</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>3.4911859726999999</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45714.752199074072</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>3.50657778828</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45714.752453703702</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>3.49786813404</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45719.809641203705</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>6.4291775780000004E-2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45719.809652777774</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1.236653096E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45719.809652777774</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>6.4502490019999997E-2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45719.809664351851</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1.67819718E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45719.809664351851</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>6.5504251040000003E-2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>2.475080524E-2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>9.0241707600000002E-3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>9.07713416E-3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45719.809687499997</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>1.07220225199999E-2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45719.809687499997</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>2.057643646E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45719.809699074074</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>6.8463879859999993E-2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45719.809699074074</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>1.7019852499999901E-2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45719.809710648151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>6.8473905919999994E-2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45719.809710648151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>2.0429636000000001E-2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45719.80972222222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>6.8974973499999995E-2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45719.80972222222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>2.8862501799999999E-2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>1.35269527199999E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>1.3471506059999999E-2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>1.6879597579999999E-2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45719.809745370374</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>2.1192616899999999E-2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45719.809745370374</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>6.8074994979999998E-2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45719.809756944444</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>1.6215087539999999E-2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45719.809756944444</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>6.7909565719999995E-2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45719.80976851852</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>1.978973958E-2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45719.80976851852</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120">
+        <v>6.8151467399999999E-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45719.80978009259</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>2.7965486880000001E-2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45719.80978009259</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>1.232464344E-2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123">
+        <v>1.3123075140000001E-2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>1.5842498140000001E-2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125">
+        <v>1.9318542559999999E-2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45719.809803240743</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126">
+        <v>4.2041618400000001E-2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45719.809803240743</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127">
+        <v>1.4878772340000001E-2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>4.1432363940000001E-2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>1.75062369E-2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130">
+        <v>4.1624411460000003E-2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45719.80982638889</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>2.1458405059999901E-2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45719.80982638889</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132">
+        <v>1.2783342039999999E-2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133">
+        <v>1.273751916E-2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134">
+        <v>1.5026818359999999E-2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135">
+        <v>1.770999744E-2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45719.81113425926</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136">
+        <v>18.60956869156</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45719.811377314814</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137">
+        <v>3.3904039366399998</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45719.813611111109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138">
+        <v>32.200298335660001</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45719.813854166663</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139">
+        <v>3.38900948152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45719.816087962965</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140">
+        <v>32.190997267660002</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45719.816331018519</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141">
+        <v>3.3980013402399898</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45719.818576388891</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>32.219238396739897</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45720.289814814816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>6.5185362599999894E-2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45720.289826388886</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>1.310630086E-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45720.289826388886</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>6.4434998739999999E-2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45720.289837962962</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1.605031514E-2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45720.289837962962</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>6.4716492360000002E-2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>2.4615401539999901E-2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>8.9913272999999991E-3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>9.0982288999999997E-3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45720.289861111109</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>1.0290203560000001E-2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45720.289861111109</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>2.0879704879999999E-2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45720.289872685185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>6.8399356460000005E-2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45720.289872685185</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>1.7272663340000001E-2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45720.289884259262</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>6.8936078479999996E-2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45720.289884259262</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>2.0862164119999999E-2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157">
+        <v>6.8911231779999998E-2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158">
+        <v>2.9270741199999901E-2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>1.339336772E-2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>1.357384912E-2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>1.691551078E-2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162">
+        <v>2.056420338E-2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45720.289918981478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163">
+        <v>6.8055032380000005E-2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45720.289930555555</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164">
+        <v>1.64714572399999E-2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45720.289930555555</v>
+      </c>
+      <c r="B165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>6.8161892619999997E-2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45720.289942129632</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>2.0378954120000001E-2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45720.289942129632</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>6.8201535699999996E-2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>2.829888262E-2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169">
+        <v>1.31487415E-2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170">
+        <v>1.279560328E-2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45720.289965277778</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>1.5782708560000001E-2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45720.289965277778</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>1.9371205579999998E-2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173">
+        <v>4.1589569799999997E-2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174">
+        <v>1.506448346E-2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175">
+        <v>4.1568492499999998E-2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45720.289988425924</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176">
+        <v>1.7730739400000001E-2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45720.289988425924</v>
+      </c>
+      <c r="B177" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177">
+        <v>4.1545932639999998E-2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178">
+        <v>2.2567193119999999E-2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179">
+        <v>1.3603079360000001E-2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B180" t="s">
+        <v>39</v>
+      </c>
+      <c r="C180">
+        <v>1.337134844E-2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45720.290011574078</v>
+      </c>
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181">
+        <v>1.4335951059999999E-2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45720.290011574078</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182">
+        <v>1.8189408260000001E-2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45720.291307870371</v>
+      </c>
+      <c r="B183" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183">
+        <v>18.581907673859899</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45720.291550925926</v>
+      </c>
+      <c r="B184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184">
+        <v>3.39756590739999</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45720.293796296297</v>
+      </c>
+      <c r="B185" t="s">
+        <v>44</v>
+      </c>
+      <c r="C185">
+        <v>32.326207506300001</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45720.294027777774</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>3.3906187373600001</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45720.296284722222</v>
+      </c>
+      <c r="B187" t="s">
+        <v>46</v>
+      </c>
+      <c r="C187">
+        <v>32.354604465999998</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45720.296516203707</v>
+      </c>
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188">
+        <v>3.3980708874199999</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45720.298761574071</v>
+      </c>
+      <c r="B189" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>32.28615898836</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45720.304652777777</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>1.039130244E-2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45720.304652777777</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>1.271361268E-2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>8.9200907599999903E-3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>1.6214250020000001E-2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>9.2404699199999992E-3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>2.4866903999999999E-2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>9.6374842399999903E-3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>9.7067290000000007E-3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198">
+        <v>1.067976898E-2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>2.0894027279999901E-2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>1.3347842400000001E-2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45720.304699074077</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>1.7595274099999999E-2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45720.304699074077</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202">
+        <v>1.345713154E-2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>2.0608434799999999E-2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>1.35186776199999E-2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205">
+        <v>3.1400978159999898E-2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206">
+        <v>1.35122999E-2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>1.377333576E-2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208">
+        <v>1.691528976E-2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209">
+        <v>2.078572524E-2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210">
+        <v>1.281960414E-2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>1.5893810899999999E-2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45720.304745370369</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212">
+        <v>1.25575365599999E-2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45720.304745370369</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213">
+        <v>2.0167004780000001E-2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B214" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <v>1.2774967579999999E-2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215">
+        <v>2.7952885640000001E-2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216">
+        <v>1.2989998440000001E-2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217">
+        <v>1.287295256E-2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218">
+        <v>1.5751399820000001E-2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B219" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219">
+        <v>1.946483362E-2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220">
+        <v>1.251222074E-2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221">
+        <v>1.506995046E-2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B222" t="s">
+        <v>34</v>
+      </c>
+      <c r="C222">
+        <v>1.3100996E-2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223">
+        <v>1.7739010859999901E-2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B224" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224">
+        <v>1.26964434E-2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225">
+        <v>2.523749242E-2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45720.304803240739</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226">
+        <v>1.3186974820000001E-2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45720.304803240739</v>
+      </c>
+      <c r="B227" t="s">
+        <v>39</v>
+      </c>
+      <c r="C227">
+        <v>1.3151216639999999E-2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45720.304814814815</v>
+      </c>
+      <c r="B228" t="s">
+        <v>40</v>
+      </c>
+      <c r="C228">
+        <v>1.4162565199999999E-2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45720.304814814815</v>
+      </c>
+      <c r="B229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229">
+        <v>1.833323244E-2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45720.305474537039</v>
+      </c>
+      <c r="B230" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230">
+        <v>9.4498420139999997</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45720.305717592593</v>
+      </c>
+      <c r="B231" t="s">
+        <v>43</v>
+      </c>
+      <c r="C231">
+        <v>3.4105223068799999</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45720.307962962965</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>32.2376273994199</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45720.308194444442</v>
+      </c>
+      <c r="B233" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233">
+        <v>3.3949540332999999</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45720.310439814813</v>
+      </c>
+      <c r="B234" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234">
+        <v>32.306374561799998</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45720.310682870368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235">
+        <v>3.4170126017400002</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45720.312939814816</v>
+      </c>
+      <c r="B236" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236">
+        <v>32.387898990159997</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45720.319166666668</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1.1095623779999999E-2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45720.319166666668</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>1.2987952400000001E-2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>8.9245558799999902E-3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>1.6266656920000001E-2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>9.3768966599999896E-3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>2.4512923440000001E-2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243">
+        <v>8.9011008400000004E-3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>9.0782748399999991E-3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>1.043475992E-2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>2.079404692E-2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247">
+        <v>1.365721422E-2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248">
+        <v>1.6850360799999999E-2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249">
+        <v>1.311783846E-2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>2.065714972E-2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251">
+        <v>1.3344689999999999E-2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252">
+        <v>2.894051156E-2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253">
+        <v>1.3493879239999999E-2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45720.319236111114</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>1.3541544940000001E-2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45720.319236111114</v>
+      </c>
+      <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255">
+        <v>1.678031634E-2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B256" t="s">
+        <v>21</v>
+      </c>
+      <c r="C256">
+        <v>2.10405626E-2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257">
+        <v>1.30885658199999E-2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258">
+        <v>1.64794492999999E-2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B259" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259">
+        <v>1.2577786820000001E-2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>2.00470991E-2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261">
+        <v>1.2679255679999999E-2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262">
+        <v>2.833697684E-2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B263" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263">
+        <v>1.37036254199999E-2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B264" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264">
+        <v>1.2949793120000001E-2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B265" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265">
+        <v>1.605928568E-2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B266" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266">
+        <v>1.936128174E-2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267">
+        <v>1.2753720559999999E-2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45720.319293981483</v>
+      </c>
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268">
+        <v>1.49272806E-2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45720.319293981483</v>
+      </c>
+      <c r="B269" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269">
+        <v>1.426567766E-2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B270" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270">
+        <v>1.7228268219999999E-2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B271" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271">
+        <v>1.2738379080000001E-2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B272" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272">
+        <v>2.2536772159999999E-2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B273" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273">
+        <v>1.2882336719999899E-2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B274" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274">
+        <v>1.30896502599999E-2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B275" t="s">
+        <v>40</v>
+      </c>
+      <c r="C275">
+        <v>1.407815164E-2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45720.319328703707</v>
+      </c>
+      <c r="B276" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276">
+        <v>1.7659123539999998E-2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45720.319976851853</v>
+      </c>
+      <c r="B277" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277">
+        <v>9.4025326664999902</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45720.320219907408</v>
+      </c>
+      <c r="B278" t="s">
+        <v>43</v>
+      </c>
+      <c r="C278">
+        <v>3.3959592106800001</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45720.320462962962</v>
+      </c>
+      <c r="B279" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279">
+        <v>3.3937657450800001</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45720.320694444446</v>
+      </c>
+      <c r="B280" t="s">
+        <v>45</v>
+      </c>
+      <c r="C280">
+        <v>3.39217395422</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45720.320937500001</v>
+      </c>
+      <c r="B281" t="s">
+        <v>46</v>
+      </c>
+      <c r="C281">
+        <v>3.3973795336999899</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45720.321180555555</v>
+      </c>
+      <c r="B282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C282">
+        <v>3.3980056727400001</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45720.321412037039</v>
+      </c>
+      <c r="B283" t="s">
+        <v>48</v>
+      </c>
+      <c r="C283">
+        <v>3.4003575928999998</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>8.9041984600000002E-3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>1.3320973620000001E-2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>9.00224159999999E-3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287">
+        <v>1.6393016739999999E-2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>9.0088763199999995E-3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>2.4575926499999901E-2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290">
+        <v>8.8680649199999999E-3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291">
+        <v>9.2157925200000001E-3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292">
+        <v>1.029476916E-2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293">
+        <v>2.075390702E-2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <v>1.3848916379999901E-2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>1.7231330100000001E-2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296">
+        <v>1.363037992E-2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1</v>
+      </c>
+      <c r="E296" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297">
+        <v>2.0363003979999999E-2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298">
+        <v>1.3637019239999999E-2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299">
+        <v>2.9153107460000001E-2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1</v>
+      </c>
+      <c r="E299" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300">
+        <v>1.40218066199999E-2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B301" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301">
+        <v>1.321376648E-2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1</v>
+      </c>
+      <c r="E301" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45720.330590277779</v>
+      </c>
+      <c r="B302" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <v>1.7031791479999999E-2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45720.330590277779</v>
+      </c>
+      <c r="B303" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303">
+        <v>2.112863102E-2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1</v>
+      </c>
+      <c r="E303" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B304" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304">
+        <v>1.32296599799999E-2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305">
+        <v>1.6939358259999999E-2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1</v>
+      </c>
+      <c r="E305" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B306" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306">
+        <v>1.283336008E-2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307">
+        <v>2.0046780640000001E-2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B308" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308">
+        <v>1.2887365580000001E-2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C309">
+        <v>2.889365558E-2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1</v>
+      </c>
+      <c r="E309" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310">
+        <v>1.2881600999999999E-2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1</v>
+      </c>
+      <c r="E310" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B311" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311">
+        <v>1.2947447179999899E-2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1</v>
+      </c>
+      <c r="E311" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B312" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312">
+        <v>1.6122291559999901E-2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313">
+        <v>1.9281294439999999E-2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1</v>
+      </c>
+      <c r="E313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B314" t="s">
+        <v>32</v>
+      </c>
+      <c r="C314">
+        <v>1.312389854E-2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315">
+        <v>1.49707914599999E-2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1</v>
+      </c>
+      <c r="E315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B316" t="s">
+        <v>34</v>
+      </c>
+      <c r="C316">
+        <v>1.279020084E-2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B317" t="s">
+        <v>35</v>
+      </c>
+      <c r="C317">
+        <v>1.7175520739999998E-2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B318" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318">
+        <v>1.4203019880000001E-2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1</v>
+      </c>
+      <c r="E318" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>45720.330659722225</v>
+      </c>
+      <c r="B319" t="s">
+        <v>37</v>
+      </c>
+      <c r="C319">
+        <v>2.2046056859999899E-2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>45720.330659722225</v>
+      </c>
+      <c r="B320" t="s">
+        <v>38</v>
+      </c>
+      <c r="C320">
+        <v>1.3292160819999999E-2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1</v>
+      </c>
+      <c r="E320" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B321" t="s">
+        <v>39</v>
+      </c>
+      <c r="C321">
+        <v>1.3136161E-2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B322" t="s">
+        <v>40</v>
+      </c>
+      <c r="C322">
+        <v>1.4417131E-2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B323" t="s">
+        <v>41</v>
+      </c>
+      <c r="C323">
+        <v>1.77613464999999E-2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>45720.331331018519</v>
+      </c>
+      <c r="B324" t="s">
+        <v>42</v>
+      </c>
+      <c r="C324">
+        <v>9.4145968583799995</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>45720.331574074073</v>
+      </c>
+      <c r="B325" t="s">
+        <v>43</v>
+      </c>
+      <c r="C325">
+        <v>3.3896015665800001</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>45720.331805555557</v>
+      </c>
+      <c r="B326" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326">
+        <v>3.38950574838</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1</v>
+      </c>
+      <c r="E326" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>45720.332048611112</v>
+      </c>
+      <c r="B327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C327">
+        <v>3.39652100144</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E327" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>45720.332280092596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>46</v>
+      </c>
+      <c r="C328">
+        <v>3.39265417318</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1</v>
+      </c>
+      <c r="E328" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45720.33252314815</v>
+      </c>
+      <c r="B329" t="s">
+        <v>47</v>
+      </c>
+      <c r="C329">
+        <v>3.3983595647999998</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45720.332766203705</v>
+      </c>
+      <c r="B330" t="s">
+        <v>48</v>
+      </c>
+      <c r="C330">
+        <v>3.39689004918</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/timings.xlsx
+++ b/test/timings.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascrosbie/Documents/repos/grepq/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A981C-0CBE-AD47-BE80-A321EA77FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7945179F-C091-7541-8914-219D90EBD717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A33A1557-C7C6-3B4E-8ECA-FE2A639FD21B}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{A33A1557-C7C6-3B4E-8ECA-FE2A639FD21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="test_timings" localSheetId="0">Sheet1!$A$2:$E$283</definedName>
     <definedName name="test_timings" localSheetId="1">Sheet2!$A$2:$E$330</definedName>
+    <definedName name="test_timings" localSheetId="2">Sheet3!$A$2:$E$377</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C52B6B41-65A2-EC45-99A1-08536B2891B8}" name="test_timings" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/nicholascrosbie/Documents/repos/grepq/test/test_timings.log" tab="0" comma="1">
+    <textPr sourceFile="/Users/nicholascrosbie/Documents/repos/grepq/test/test_timings.log" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -54,6 +56,17 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{1D570C86-C98D-D141-8C1B-E26589485320}" name="test_timings1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/nicholascrosbie/Documents/repos/grepq/test/test_timings.log" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{9BAFA897-BE61-DD4A-9362-FCE77554D868}" name="test_timings2" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/nicholascrosbie/Documents/repos/grepq/test/test_timings.log" tab="0" comma="1">
       <textFields count="5">
         <textField/>
@@ -68,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="60">
   <si>
     <t xml:space="preserve"> test-1</t>
   </si>
@@ -246,6 +259,9 @@
   <si>
     <t>control versoin</t>
   </si>
+  <si>
+    <t>% difference</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +311,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -314,6 +341,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_timings" connectionId="2" xr16:uid="{FC6C6F52-232E-864F-889B-B88082988E74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_timings" connectionId="3" xr16:uid="{90D0A959-DBAA-1B46-9BA8-677150E625CC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5667,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E6782B-8EFE-664F-B6A8-6F1E57034905}">
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11491,4 +11522,6830 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FECF4A-0F2D-E24C-B281-650B0F5BD424}">
+  <dimension ref="A1:I377"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45714.483148148145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.4623772700000001E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>C2-C331</f>
+        <v>1.4739538640000001E-2</v>
+      </c>
+      <c r="H2">
+        <f>(G2/C2)*100</f>
+        <v>59.858977824303906</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45714.483159722222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3.1482184320000002E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="0">C3-C332</f>
+        <v>1.9873223440000004E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H48" si="1">(G3/C3)*100</f>
+        <v>63.12530044929234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45714.483159722222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2.6828059179999999E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.7756374159999998E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>66.18583193389243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45714.483171296299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3.5933748660000001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.9128752920000002E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>53.233390985709647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45714.483171296299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2.5735031200000001E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.6349985560000002E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>63.532021519367746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45714.483182870368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4.7051659159999898E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.2222000679999899E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>47.228941713688869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45714.483194444445</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2.7095334539999998E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.8270298899999999E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>67.429685627347126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45714.483194444445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2.728001398E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.8470076719999999E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>67.70552512744716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45714.483206018522</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3.1600788679999998E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.1587673259999999E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>68.313716719553724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45714.483206018522</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4.0821086719999997E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.0171835799999996E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>49.415234676045387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45714.483217592591</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3.1970108240000003E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.8494899740000105E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>57.850600946229711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45714.483217592591</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3.8629991760000003E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.1651780660000102E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>56.049146462463803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45714.483229166668</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3.2331493060000001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.8612080360000002E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>57.566411564910268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45714.483229166668</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>4.056279426E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.0121929400000099E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>49.606862069270328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45714.483240740738</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>3.3488875000000001E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2.050528318E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>61.230134425238226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45714.483240740738</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>5.1503134200000002E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2.0735613360000002E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>40.260876706023843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45714.483252314814</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3.4023093259999998E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2.0414289300000096E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>60.001273676078739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45714.483263888891</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>3.3527537480000001E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.0146760239999999E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>60.090187810596099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45714.483263888891</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3.71583859E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.0351035560000001E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>54.768351926718104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45714.483275462961</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4.1281800719999998E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.9262973799999996E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>46.662145216614952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45714.483275462961</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3.2177358519999998E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.8216002520000097E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>56.611242680712436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45714.483287037037</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3.6605655799999998E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.5176235979999998E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>41.458719010301131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45714.483287037037</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>3.0226475959999999E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.5685593899999999E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>51.893558219480909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45714.483298611114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>4.2335105679999999E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.9157551759999999E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>45.252164727795716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45714.483298611114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>3.0511335859999999E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.3442792459999998E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>44.05835431684045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45714.483310185184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>4.9622533080000003E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1.4769879080000006E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>29.764460141904557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45714.483310185184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>3.142885418E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.337827246E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>42.566847596096487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45714.48332175926</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>3.1996393880000001E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.685620292E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>52.681570877074101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45714.48332175926</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>3.5628964800000003E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.8310113060000004E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>51.391089139923608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45714.48333333333</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>4.0844533000000002E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1.9183012960000002E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>46.965925549938355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45714.48333333333</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>3.2235610119999897E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.6688011759999899E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>51.768872057570206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45714.483344907407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>3.4481393020000001E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.65379623E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>47.961990080875218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45714.483356481483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>3.2204675680000003E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.6998030700000003E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>52.781250986347459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45714.483356481483</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>4.239769828E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2.3757817300000001E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>56.035629913445383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45714.483368055553</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>3.2507600560000002E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.8048211380000102E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>55.519974003273845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45714.483368055553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>4.5172600680000001E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.9016373940000001E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>42.097142191814143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45714.48337962963</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>3.4101899179999999E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.8638764160000001E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>54.656088394429425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45714.48337962963</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>3.1701430939999997E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.6496751499999997E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>52.037876559019445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45714.483391203707</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>3.2652552019999899E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.40301928399999E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>42.96813563425706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45714.483391203707</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3.8542598380000001E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1.824787424E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>47.344691346676143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45714.484097222223</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.9292181028000002</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>8.1503627400003609E-3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>8.2084638041156441E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45714.484340277777</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>3.5494543976599999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>-9.8748367999998976E-3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>-0.278207174784664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45714.484594907408</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>3.5579570016000002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>-6.3344335999993007E-4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-1.7803569849637668E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45714.484849537039</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.5694327057000002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>-3.448523179999885E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>-9.661264028014771E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45714.485092592593</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>3.5560120366199901</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>-2.8538227459999899E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>-0.80253461366586509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45714.485347222224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>3.5660596618599998</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>5.1824007599998723E-3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0.14532568861444162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45714.485601851855</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>3.5720474597999901</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1.2062743539990262E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0.33769829980550403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45714.750115740739</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>9.0648583399999903E-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45714.750115740739</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1.370387922E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>9.80041582E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1.7142537440000001E-2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45714.750127314815</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1.0559840799999999E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2.6383829500000001E-2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>1.0034329959999999E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45714.750138888892</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>1.0470007260000001E-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45714.750150462962</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1.0097641699999899E-2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45714.750150462962</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>2.208240144E-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>1.45526293E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>1.791631824E-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45714.750162037039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>1.296916022E-2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45714.750173611108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>2.2405627399999999E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45714.750173611108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>1.454685922E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45714.750185185185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>3.1836881599999999E-2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45714.750185185185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>1.4557097220000001E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>1.43022631599999E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>1.8047984060000001E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45714.750196759262</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>2.08238052E-2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45714.750208333331</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>1.26585484799999E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45714.750208333331</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>1.7277846600000001E-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>1.5004799839999999E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>2.1732772000000001E-2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45714.750219907408</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>1.440347642E-2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45714.750231481485</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>3.0397655459999999E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45714.750231481485</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>1.3910619040000001E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>1.38853762999999E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>1.6048700839999999E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45714.750243055554</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>2.0385716179999999E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45714.750254629631</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79">
+        <v>1.29551568199999E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45714.750254629631</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>1.497103676E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>1.3753403339999901E-2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>1.8630544860000001E-2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45714.7502662037</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>1.4069521600000001E-2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45714.750277777777</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>2.4029898040000001E-2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45714.750277777777</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>1.4237333359999899E-2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86">
+        <v>1.42857333799999E-2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>1.519046848E-2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45714.750289351854</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88">
+        <v>1.9088685219999998E-2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45714.750972222224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89">
+        <v>9.6874230733799997</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45714.751215277778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>3.4983258234600001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45714.751458333332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91">
+        <v>3.4921092142599899</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45714.751712962963</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92">
+        <v>3.5022030458</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45714.751956018517</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>3.4911859726999999</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45714.752199074072</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>3.50657778828</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45714.752453703702</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>3.49786813404</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45719.809641203705</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>6.4291775780000004E-2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45719.809652777774</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1.236653096E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45719.809652777774</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>6.4502490019999997E-2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45719.809664351851</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1.67819718E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45719.809664351851</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>6.5504251040000003E-2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>2.475080524E-2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>9.0241707600000002E-3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45719.809675925928</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>9.07713416E-3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45719.809687499997</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>1.07220225199999E-2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45719.809687499997</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>2.057643646E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45719.809699074074</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>6.8463879859999993E-2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45719.809699074074</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>1.7019852499999901E-2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45719.809710648151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>6.8473905919999994E-2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45719.809710648151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>2.0429636000000001E-2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45719.80972222222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>6.8974973499999995E-2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45719.80972222222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>2.8862501799999999E-2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>1.35269527199999E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>1.3471506059999999E-2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45719.809733796297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>1.6879597579999999E-2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45719.809745370374</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>2.1192616899999999E-2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45719.809745370374</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>6.8074994979999998E-2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45719.809756944444</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>1.6215087539999999E-2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45719.809756944444</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>6.7909565719999995E-2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45719.80976851852</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>1.978973958E-2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45719.80976851852</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120">
+        <v>6.8151467399999999E-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45719.80978009259</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>2.7965486880000001E-2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45719.80978009259</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>1.232464344E-2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123">
+        <v>1.3123075140000001E-2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>1.5842498140000001E-2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45719.809791666667</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125">
+        <v>1.9318542559999999E-2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45719.809803240743</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126">
+        <v>4.2041618400000001E-2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45719.809803240743</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127">
+        <v>1.4878772340000001E-2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>4.1432363940000001E-2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>1.75062369E-2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45719.809814814813</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130">
+        <v>4.1624411460000003E-2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45719.80982638889</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>2.1458405059999901E-2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45719.80982638889</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132">
+        <v>1.2783342039999999E-2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133">
+        <v>1.273751916E-2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134">
+        <v>1.5026818359999999E-2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45719.809837962966</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135">
+        <v>1.770999744E-2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45719.81113425926</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136">
+        <v>18.60956869156</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45719.811377314814</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137">
+        <v>3.3904039366399998</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45719.813611111109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138">
+        <v>32.200298335660001</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45719.813854166663</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139">
+        <v>3.38900948152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45719.816087962965</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140">
+        <v>32.190997267660002</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45719.816331018519</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141">
+        <v>3.3980013402399898</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45719.818576388891</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>32.219238396739897</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45720.289814814816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>6.5185362599999894E-2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45720.289826388886</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>1.310630086E-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45720.289826388886</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>6.4434998739999999E-2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45720.289837962962</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1.605031514E-2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45720.289837962962</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>6.4716492360000002E-2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>2.4615401539999901E-2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>8.9913272999999991E-3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45720.289849537039</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>9.0982288999999997E-3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45720.289861111109</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>1.0290203560000001E-2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45720.289861111109</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>2.0879704879999999E-2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45720.289872685185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>6.8399356460000005E-2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45720.289872685185</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>1.7272663340000001E-2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45720.289884259262</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>6.8936078479999996E-2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45720.289884259262</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>2.0862164119999999E-2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157">
+        <v>6.8911231779999998E-2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158">
+        <v>2.9270741199999901E-2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45720.289895833332</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>1.339336772E-2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>1.357384912E-2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>1.691551078E-2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45720.289907407408</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162">
+        <v>2.056420338E-2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45720.289918981478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163">
+        <v>6.8055032380000005E-2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45720.289930555555</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164">
+        <v>1.64714572399999E-2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45720.289930555555</v>
+      </c>
+      <c r="B165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>6.8161892619999997E-2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45720.289942129632</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>2.0378954120000001E-2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45720.289942129632</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>6.8201535699999996E-2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>2.829888262E-2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169">
+        <v>1.31487415E-2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45720.289953703701</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170">
+        <v>1.279560328E-2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45720.289965277778</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>1.5782708560000001E-2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45720.289965277778</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>1.9371205579999998E-2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173">
+        <v>4.1589569799999997E-2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174">
+        <v>1.506448346E-2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45720.289976851855</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175">
+        <v>4.1568492499999998E-2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45720.289988425924</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176">
+        <v>1.7730739400000001E-2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45720.289988425924</v>
+      </c>
+      <c r="B177" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177">
+        <v>4.1545932639999998E-2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178">
+        <v>2.2567193119999999E-2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179">
+        <v>1.3603079360000001E-2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45720.29</v>
+      </c>
+      <c r="B180" t="s">
+        <v>39</v>
+      </c>
+      <c r="C180">
+        <v>1.337134844E-2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45720.290011574078</v>
+      </c>
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181">
+        <v>1.4335951059999999E-2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45720.290011574078</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182">
+        <v>1.8189408260000001E-2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45720.291307870371</v>
+      </c>
+      <c r="B183" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183">
+        <v>18.581907673859899</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45720.291550925926</v>
+      </c>
+      <c r="B184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184">
+        <v>3.39756590739999</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45720.293796296297</v>
+      </c>
+      <c r="B185" t="s">
+        <v>44</v>
+      </c>
+      <c r="C185">
+        <v>32.326207506300001</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45720.294027777774</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>3.3906187373600001</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45720.296284722222</v>
+      </c>
+      <c r="B187" t="s">
+        <v>46</v>
+      </c>
+      <c r="C187">
+        <v>32.354604465999998</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45720.296516203707</v>
+      </c>
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188">
+        <v>3.3980708874199999</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45720.298761574071</v>
+      </c>
+      <c r="B189" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>32.28615898836</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45720.304652777777</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>1.039130244E-2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45720.304652777777</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>1.271361268E-2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>8.9200907599999903E-3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>1.6214250020000001E-2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45720.304664351854</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>9.2404699199999992E-3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>2.4866903999999999E-2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>9.6374842399999903E-3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45720.304675925923</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>9.7067290000000007E-3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198">
+        <v>1.067976898E-2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>2.0894027279999901E-2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45720.3046875</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>1.3347842400000001E-2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45720.304699074077</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>1.7595274099999999E-2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45720.304699074077</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202">
+        <v>1.345713154E-2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>2.0608434799999999E-2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>1.35186776199999E-2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45720.304710648146</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205">
+        <v>3.1400978159999898E-2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206">
+        <v>1.35122999E-2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>1.377333576E-2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45720.304722222223</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208">
+        <v>1.691528976E-2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209">
+        <v>2.078572524E-2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210">
+        <v>1.281960414E-2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45720.3047337963</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>1.5893810899999999E-2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45720.304745370369</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212">
+        <v>1.25575365599999E-2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45720.304745370369</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213">
+        <v>2.0167004780000001E-2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B214" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <v>1.2774967579999999E-2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215">
+        <v>2.7952885640000001E-2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45720.304756944446</v>
+      </c>
+      <c r="B216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216">
+        <v>1.2989998440000001E-2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217">
+        <v>1.287295256E-2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218">
+        <v>1.5751399820000001E-2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45720.304768518516</v>
+      </c>
+      <c r="B219" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219">
+        <v>1.946483362E-2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220">
+        <v>1.251222074E-2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221">
+        <v>1.506995046E-2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45720.304780092592</v>
+      </c>
+      <c r="B222" t="s">
+        <v>34</v>
+      </c>
+      <c r="C222">
+        <v>1.3100996E-2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223">
+        <v>1.7739010859999901E-2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B224" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224">
+        <v>1.26964434E-2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45720.304791666669</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225">
+        <v>2.523749242E-2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45720.304803240739</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226">
+        <v>1.3186974820000001E-2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45720.304803240739</v>
+      </c>
+      <c r="B227" t="s">
+        <v>39</v>
+      </c>
+      <c r="C227">
+        <v>1.3151216639999999E-2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45720.304814814815</v>
+      </c>
+      <c r="B228" t="s">
+        <v>40</v>
+      </c>
+      <c r="C228">
+        <v>1.4162565199999999E-2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45720.304814814815</v>
+      </c>
+      <c r="B229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229">
+        <v>1.833323244E-2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45720.305474537039</v>
+      </c>
+      <c r="B230" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230">
+        <v>9.4498420139999997</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45720.305717592593</v>
+      </c>
+      <c r="B231" t="s">
+        <v>43</v>
+      </c>
+      <c r="C231">
+        <v>3.4105223068799999</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45720.307962962965</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>32.2376273994199</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45720.308194444442</v>
+      </c>
+      <c r="B233" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233">
+        <v>3.3949540332999999</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45720.310439814813</v>
+      </c>
+      <c r="B234" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234">
+        <v>32.306374561799998</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45720.310682870368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235">
+        <v>3.4170126017400002</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45720.312939814816</v>
+      </c>
+      <c r="B236" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236">
+        <v>32.387898990159997</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45720.319166666668</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1.1095623779999999E-2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45720.319166666668</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>1.2987952400000001E-2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>8.9245558799999902E-3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>1.6266656920000001E-2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45720.319178240738</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>9.3768966599999896E-3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>2.4512923440000001E-2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243">
+        <v>8.9011008400000004E-3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45720.319189814814</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>9.0782748399999991E-3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>1.043475992E-2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>2.079404692E-2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45720.319201388891</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247">
+        <v>1.365721422E-2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248">
+        <v>1.6850360799999999E-2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249">
+        <v>1.311783846E-2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45720.319212962961</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>2.065714972E-2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251">
+        <v>1.3344689999999999E-2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252">
+        <v>2.894051156E-2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45720.319224537037</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253">
+        <v>1.3493879239999999E-2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45720.319236111114</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>1.3541544940000001E-2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45720.319236111114</v>
+      </c>
+      <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255">
+        <v>1.678031634E-2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B256" t="s">
+        <v>21</v>
+      </c>
+      <c r="C256">
+        <v>2.10405626E-2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257">
+        <v>1.30885658199999E-2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45720.319247685184</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258">
+        <v>1.64794492999999E-2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B259" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259">
+        <v>1.2577786820000001E-2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>2.00470991E-2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45720.31925925926</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261">
+        <v>1.2679255679999999E-2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262">
+        <v>2.833697684E-2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B263" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263">
+        <v>1.37036254199999E-2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45720.31927083333</v>
+      </c>
+      <c r="B264" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264">
+        <v>1.2949793120000001E-2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B265" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265">
+        <v>1.605928568E-2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B266" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266">
+        <v>1.936128174E-2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45720.319282407407</v>
+      </c>
+      <c r="B267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267">
+        <v>1.2753720559999999E-2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45720.319293981483</v>
+      </c>
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268">
+        <v>1.49272806E-2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45720.319293981483</v>
+      </c>
+      <c r="B269" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269">
+        <v>1.426567766E-2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B270" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270">
+        <v>1.7228268219999999E-2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B271" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271">
+        <v>1.2738379080000001E-2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45720.319305555553</v>
+      </c>
+      <c r="B272" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272">
+        <v>2.2536772159999999E-2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B273" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273">
+        <v>1.2882336719999899E-2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B274" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274">
+        <v>1.30896502599999E-2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45720.31931712963</v>
+      </c>
+      <c r="B275" t="s">
+        <v>40</v>
+      </c>
+      <c r="C275">
+        <v>1.407815164E-2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45720.319328703707</v>
+      </c>
+      <c r="B276" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276">
+        <v>1.7659123539999998E-2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45720.319976851853</v>
+      </c>
+      <c r="B277" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277">
+        <v>9.4025326664999902</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45720.320219907408</v>
+      </c>
+      <c r="B278" t="s">
+        <v>43</v>
+      </c>
+      <c r="C278">
+        <v>3.3959592106800001</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45720.320462962962</v>
+      </c>
+      <c r="B279" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279">
+        <v>3.3937657450800001</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45720.320694444446</v>
+      </c>
+      <c r="B280" t="s">
+        <v>45</v>
+      </c>
+      <c r="C280">
+        <v>3.39217395422</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45720.320937500001</v>
+      </c>
+      <c r="B281" t="s">
+        <v>46</v>
+      </c>
+      <c r="C281">
+        <v>3.3973795336999899</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45720.321180555555</v>
+      </c>
+      <c r="B282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C282">
+        <v>3.3980056727400001</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45720.321412037039</v>
+      </c>
+      <c r="B283" t="s">
+        <v>48</v>
+      </c>
+      <c r="C283">
+        <v>3.4003575928999998</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>8.9041984600000002E-3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>1.3320973620000001E-2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45720.330520833333</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>9.00224159999999E-3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287">
+        <v>1.6393016739999999E-2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>9.0088763199999995E-3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45720.33053240741</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>2.4575926499999901E-2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290">
+        <v>8.8680649199999999E-3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291">
+        <v>9.2157925200000001E-3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45720.330543981479</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292">
+        <v>1.029476916E-2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293">
+        <v>2.075390702E-2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <v>1.3848916379999901E-2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45720.330555555556</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>1.7231330100000001E-2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296">
+        <v>1.363037992E-2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1</v>
+      </c>
+      <c r="E296" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297">
+        <v>2.0363003979999999E-2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45720.330567129633</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298">
+        <v>1.3637019239999999E-2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299">
+        <v>2.9153107460000001E-2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1</v>
+      </c>
+      <c r="E299" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300">
+        <v>1.40218066199999E-2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45720.330578703702</v>
+      </c>
+      <c r="B301" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301">
+        <v>1.321376648E-2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1</v>
+      </c>
+      <c r="E301" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45720.330590277779</v>
+      </c>
+      <c r="B302" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <v>1.7031791479999999E-2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45720.330590277779</v>
+      </c>
+      <c r="B303" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303">
+        <v>2.112863102E-2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1</v>
+      </c>
+      <c r="E303" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B304" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304">
+        <v>1.32296599799999E-2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305">
+        <v>1.6939358259999999E-2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1</v>
+      </c>
+      <c r="E305" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45720.330601851849</v>
+      </c>
+      <c r="B306" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306">
+        <v>1.283336008E-2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307">
+        <v>2.0046780640000001E-2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B308" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308">
+        <v>1.2887365580000001E-2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>45720.330613425926</v>
+      </c>
+      <c r="B309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C309">
+        <v>2.889365558E-2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1</v>
+      </c>
+      <c r="E309" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310">
+        <v>1.2881600999999999E-2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1</v>
+      </c>
+      <c r="E310" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B311" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311">
+        <v>1.2947447179999899E-2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1</v>
+      </c>
+      <c r="E311" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>45720.330625000002</v>
+      </c>
+      <c r="B312" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312">
+        <v>1.6122291559999901E-2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313">
+        <v>1.9281294439999999E-2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1</v>
+      </c>
+      <c r="E313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B314" t="s">
+        <v>32</v>
+      </c>
+      <c r="C314">
+        <v>1.312389854E-2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>45720.330636574072</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315">
+        <v>1.49707914599999E-2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1</v>
+      </c>
+      <c r="E315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B316" t="s">
+        <v>34</v>
+      </c>
+      <c r="C316">
+        <v>1.279020084E-2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B317" t="s">
+        <v>35</v>
+      </c>
+      <c r="C317">
+        <v>1.7175520739999998E-2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>45720.330648148149</v>
+      </c>
+      <c r="B318" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318">
+        <v>1.4203019880000001E-2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1</v>
+      </c>
+      <c r="E318" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>45720.330659722225</v>
+      </c>
+      <c r="B319" t="s">
+        <v>37</v>
+      </c>
+      <c r="C319">
+        <v>2.2046056859999899E-2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>45720.330659722225</v>
+      </c>
+      <c r="B320" t="s">
+        <v>38</v>
+      </c>
+      <c r="C320">
+        <v>1.3292160819999999E-2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1</v>
+      </c>
+      <c r="E320" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B321" t="s">
+        <v>39</v>
+      </c>
+      <c r="C321">
+        <v>1.3136161E-2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B322" t="s">
+        <v>40</v>
+      </c>
+      <c r="C322">
+        <v>1.4417131E-2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>45720.330671296295</v>
+      </c>
+      <c r="B323" t="s">
+        <v>41</v>
+      </c>
+      <c r="C323">
+        <v>1.77613464999999E-2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>45720.331331018519</v>
+      </c>
+      <c r="B324" t="s">
+        <v>42</v>
+      </c>
+      <c r="C324">
+        <v>9.4145968583799995</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>45720.331574074073</v>
+      </c>
+      <c r="B325" t="s">
+        <v>43</v>
+      </c>
+      <c r="C325">
+        <v>3.3896015665800001</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>45720.331805555557</v>
+      </c>
+      <c r="B326" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326">
+        <v>3.38950574838</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1</v>
+      </c>
+      <c r="E326" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>45720.332048611112</v>
+      </c>
+      <c r="B327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C327">
+        <v>3.39652100144</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E327" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>45720.332280092596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>46</v>
+      </c>
+      <c r="C328">
+        <v>3.39265417318</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1</v>
+      </c>
+      <c r="E328" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45720.33252314815</v>
+      </c>
+      <c r="B329" t="s">
+        <v>47</v>
+      </c>
+      <c r="C329">
+        <v>3.3983595647999998</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45720.332766203705</v>
+      </c>
+      <c r="B330" t="s">
+        <v>48</v>
+      </c>
+      <c r="C330">
+        <v>3.39689004918</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>45720.437291666669</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>9.8842340600000002E-3</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1</v>
+      </c>
+      <c r="E331" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>45720.437291666669</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>1.160896088E-2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1</v>
+      </c>
+      <c r="E332" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>45720.437291666669</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>9.0716850199999994E-3</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1</v>
+      </c>
+      <c r="E333" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>45720.437303240738</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334">
+        <v>1.6804995739999998E-2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1</v>
+      </c>
+      <c r="E334" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>45720.437303240738</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>9.3850456400000008E-3</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>45720.437303240738</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>2.4829658479999999E-2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1</v>
+      </c>
+      <c r="E336" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>45720.437314814815</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>8.8250356399999993E-3</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1</v>
+      </c>
+      <c r="E337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>45720.437314814815</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>8.8099372599999993E-3</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1</v>
+      </c>
+      <c r="E338" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>45720.437314814815</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339">
+        <v>1.001311542E-2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1</v>
+      </c>
+      <c r="E339" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>45720.437326388892</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340">
+        <v>2.0649250920000001E-2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>45720.437326388892</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341">
+        <v>1.34752084999999E-2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>45720.437326388892</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342">
+        <v>1.6978211099999901E-2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>45720.437337962961</v>
+      </c>
+      <c r="B343" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343">
+        <v>1.3719412699999999E-2</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1</v>
+      </c>
+      <c r="E343" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>45720.437337962961</v>
+      </c>
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344">
+        <v>2.0440864859999901E-2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1</v>
+      </c>
+      <c r="E344" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>45720.437349537038</v>
+      </c>
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345">
+        <v>1.2983591819999999E-2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1</v>
+      </c>
+      <c r="E345" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>45720.437349537038</v>
+      </c>
+      <c r="B346" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346">
+        <v>3.076752084E-2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1</v>
+      </c>
+      <c r="E346" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>45720.437349537038</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347">
+        <v>1.36088039599999E-2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>45720.437361111108</v>
+      </c>
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348">
+        <v>1.3380777240000001E-2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>45720.437361111108</v>
+      </c>
+      <c r="B349" t="s">
+        <v>20</v>
+      </c>
+      <c r="C349">
+        <v>1.6807350339999999E-2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>45720.437372685185</v>
+      </c>
+      <c r="B350" t="s">
+        <v>21</v>
+      </c>
+      <c r="C350">
+        <v>2.2018826920000002E-2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1</v>
+      </c>
+      <c r="E350" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>45720.437372685185</v>
+      </c>
+      <c r="B351" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351">
+        <v>1.3961355999999901E-2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45720.437372685185</v>
+      </c>
+      <c r="B352" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352">
+        <v>2.142941982E-2</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45720.437384259261</v>
+      </c>
+      <c r="B353" t="s">
+        <v>24</v>
+      </c>
+      <c r="C353">
+        <v>1.454088206E-2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45720.437384259261</v>
+      </c>
+      <c r="B354" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354">
+        <v>2.317755392E-2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45720.437395833331</v>
+      </c>
+      <c r="B355" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355">
+        <v>1.70685434E-2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1</v>
+      </c>
+      <c r="E355" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45720.437395833331</v>
+      </c>
+      <c r="B356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356">
+        <v>3.4852653999999997E-2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45720.437407407408</v>
+      </c>
+      <c r="B357" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357">
+        <v>1.805058172E-2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1</v>
+      </c>
+      <c r="E357" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45720.437407407408</v>
+      </c>
+      <c r="B358" t="s">
+        <v>29</v>
+      </c>
+      <c r="C358">
+        <v>1.5140190959999999E-2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>45720.437418981484</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359">
+        <v>1.7318851739999998E-2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>45720.437418981484</v>
+      </c>
+      <c r="B360" t="s">
+        <v>31</v>
+      </c>
+      <c r="C360">
+        <v>2.166152004E-2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1</v>
+      </c>
+      <c r="E360" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>45720.437418981484</v>
+      </c>
+      <c r="B361" t="s">
+        <v>32</v>
+      </c>
+      <c r="C361">
+        <v>1.554759836E-2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>45720.437430555554</v>
+      </c>
+      <c r="B362" t="s">
+        <v>33</v>
+      </c>
+      <c r="C362">
+        <v>1.794343072E-2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1</v>
+      </c>
+      <c r="E362" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>45720.437430555554</v>
+      </c>
+      <c r="B363" t="s">
+        <v>34</v>
+      </c>
+      <c r="C363">
+        <v>1.520664498E-2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1</v>
+      </c>
+      <c r="E363" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>45720.437442129631</v>
+      </c>
+      <c r="B364" t="s">
+        <v>35</v>
+      </c>
+      <c r="C364">
+        <v>1.8639880979999999E-2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>45720.437442129631</v>
+      </c>
+      <c r="B365" t="s">
+        <v>36</v>
+      </c>
+      <c r="C365">
+        <v>1.44593891799999E-2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1</v>
+      </c>
+      <c r="E365" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>45720.4374537037</v>
+      </c>
+      <c r="B366" t="s">
+        <v>37</v>
+      </c>
+      <c r="C366">
+        <v>2.615622674E-2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1</v>
+      </c>
+      <c r="E366" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>45720.4374537037</v>
+      </c>
+      <c r="B367" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367">
+        <v>1.5463135019999999E-2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1</v>
+      </c>
+      <c r="E367" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>45720.4374537037</v>
+      </c>
+      <c r="B368" t="s">
+        <v>39</v>
+      </c>
+      <c r="C368">
+        <v>1.520467944E-2</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1</v>
+      </c>
+      <c r="E368" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>45720.437465277777</v>
+      </c>
+      <c r="B369" t="s">
+        <v>40</v>
+      </c>
+      <c r="C369">
+        <v>1.8622359179999999E-2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>45720.437465277777</v>
+      </c>
+      <c r="B370" t="s">
+        <v>41</v>
+      </c>
+      <c r="C370">
+        <v>2.0294724140000001E-2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>45720.438159722224</v>
+      </c>
+      <c r="B371" t="s">
+        <v>42</v>
+      </c>
+      <c r="C371">
+        <v>9.9210677400599998</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1</v>
+      </c>
+      <c r="E371" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>45720.438414351855</v>
+      </c>
+      <c r="B372" t="s">
+        <v>43</v>
+      </c>
+      <c r="C372">
+        <v>3.5593292344599998</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1</v>
+      </c>
+      <c r="E372" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>45720.438668981478</v>
+      </c>
+      <c r="B373" t="s">
+        <v>44</v>
+      </c>
+      <c r="C373">
+        <v>3.5585904449600001</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1</v>
+      </c>
+      <c r="E373" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>45720.43891203704</v>
+      </c>
+      <c r="B374" t="s">
+        <v>45</v>
+      </c>
+      <c r="C374">
+        <v>3.57288122888</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1</v>
+      </c>
+      <c r="E374" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>45720.439166666663</v>
+      </c>
+      <c r="B375" t="s">
+        <v>46</v>
+      </c>
+      <c r="C375">
+        <v>3.58455026407999</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1</v>
+      </c>
+      <c r="E375" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>45720.439421296294</v>
+      </c>
+      <c r="B376" t="s">
+        <v>47</v>
+      </c>
+      <c r="C376">
+        <v>3.5608772610999999</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>45720.439675925925</v>
+      </c>
+      <c r="B377" t="s">
+        <v>48</v>
+      </c>
+      <c r="C377">
+        <v>3.5599847162599998</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1</v>
+      </c>
+      <c r="E377" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>